--- a/input/ej5.xlsx
+++ b/input/ej5.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
-  <si>
-    <t>Duración</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -64,16 +61,13 @@
     <t>O</t>
   </si>
   <si>
-    <t>t_optimista</t>
-  </si>
-  <si>
-    <t>t_medio</t>
-  </si>
-  <si>
-    <t>t_pesimista</t>
-  </si>
-  <si>
-    <t/>
+    <t>to</t>
+  </si>
+  <si>
+    <t>tm</t>
+  </si>
+  <si>
+    <t>tp</t>
   </si>
 </sst>
 </file>
@@ -81,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,12 +86,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -129,40 +117,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,13 +165,13 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="0F9ED5"/>
@@ -466,98 +436,100 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="2.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="3">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3">
+        <v>32</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -570,22 +542,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3">
+        <v>33</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -598,22 +574,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
         <v>14</v>
       </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="3">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3">
+        <v>34</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -625,115 +605,89 @@
       <c r="P4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -746,16 +700,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -768,14 +724,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -788,14 +746,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -808,14 +766,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -828,14 +786,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -848,14 +806,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -868,14 +826,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -888,14 +846,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -908,14 +866,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -928,14 +886,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -948,14 +906,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -968,14 +926,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -988,14 +946,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1006,26 +964,6 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/ej5.xlsx
+++ b/input/ej5.xlsx
@@ -684,10 +684,10 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -705,13 +705,11 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
